--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_6_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_6_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.752682563203024, 73.45856633794526]</t>
+          <t>[53.90277715644439, 73.3084717447039]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3899739268135018, 1.74218451460335]</t>
+          <t>[1.4025528763774249, 1.729605565039427]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.50913856529759, 58.63322200158996]</t>
+          <t>[45.50448898290632, 58.63787158398123]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -640,10 +640,10 @@
         <v>17.96546546546569</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.29475475475497</v>
+        <v>17.34266266266288</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.63617617617641</v>
+        <v>18.5882682682685</v>
       </c>
     </row>
     <row r="3">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[53.662469717149136, 73.75116851388093]</t>
+          <t>[53.47426889848056, 73.9393693325495]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 1.7925003128590422]</t>
+          <t>[1.4654476241970409, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.44903118626957, 56.55093801036177]</t>
+          <t>[43.44843140726394, 56.5515377893674]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,21 +771,21 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[53.82014547191538, 73.59349275911468]</t>
+          <t>[53.4367281964297, 73.97691003460037]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="P4" t="n">
         <v>1.628973968528041</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.4528686746331179, 1.8050792624229643]</t>
+          <t>[1.46544762419704, 1.7925003128590422]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.44607164597173, 56.55389755065961]</t>
+          <t>[43.452848945511505, 56.547120251119836]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -812,10 +812,10 @@
         <v>17.72592592592615</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.05521521521543</v>
+        <v>17.10312312312334</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.39663663663687</v>
+        <v>18.34872872872896</v>
       </c>
     </row>
     <row r="5">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[53.74106524711958, 73.67257298391048]</t>
+          <t>[53.47482976993149, 73.93880846109857]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.4528686746331179, 1.8050792624229643]</t>
+          <t>[1.46544762419704, 1.7925003128590422]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.447902822586364, 56.552066374044976]</t>
+          <t>[43.44694248323287, 56.553026713398474]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>17.72592592592615</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.05521521521543</v>
+        <v>17.10312312312334</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.39663663663687</v>
+        <v>18.34872872872896</v>
       </c>
     </row>
     <row r="6">
@@ -943,21 +943,21 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[53.19441571291729, 74.01679522459906]</t>
+          <t>[53.020956836176794, 74.19025410133956]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="P6" t="n">
         <v>1.691868716347656</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.515763422452733, 1.8679740102425795]</t>
+          <t>[1.503184472888809, 1.8805529598065034]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.36315076670954, 54.49455017527255]</t>
+          <t>[41.3608363211718, 54.496864620810285]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -984,10 +984,10 @@
         <v>17.48638638638661</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.81567567567589</v>
+        <v>16.76776776776797</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.15709709709732</v>
+        <v>18.20500500500524</v>
       </c>
     </row>
     <row r="7">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[52.92118573660511, 74.55630660514939]</t>
+          <t>[52.69438976252404, 74.78310257923046]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="P7" t="n">
         <v>1.754763464167272</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.487798488449044, 56.560334245757744]</t>
+          <t>[43.492933632621735, 56.55519910158505]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,21 +1115,21 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[52.82793947543601, 74.64955286631849]</t>
+          <t>[52.95447475186701, 74.52301758988749]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="O8" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="P8" t="n">
         <v>1.754763464167272</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.57865817027235, 1.9308687580621946]</t>
+          <t>[1.566079220708426, 1.9434477076261185]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.48600537285485, 56.56212736135194]</t>
+          <t>[43.48673274675755, 56.561399987449235]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1156,10 +1156,10 @@
         <v>17.24684684684706</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.57613613613635</v>
+        <v>16.52822822822844</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.91755755755778</v>
+        <v>17.96546546546569</v>
       </c>
     </row>
     <row r="9">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[53.308580468801566, 74.16891187295293]</t>
+          <t>[52.993828544227725, 74.48366379752677]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="O9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="P9" t="n">
         <v>1.754763464167272</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.48870714733741, 56.55942558686938]</t>
+          <t>[43.485353099167405, 56.562779635039384]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[53.03554368799557, 74.22231654920787]</t>
+          <t>[53.07467664752599, 74.18318358967745]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.515763422452733, 1.8679740102425795]</t>
+          <t>[1.528342372016656, 1.8553950606786564]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.350299342047784, 54.524576843126034]</t>
+          <t>[41.35096110356302, 54.523915081610795]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1328,10 +1328,10 @@
         <v>17.44984984985006</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.78054054054075</v>
+        <v>16.82834834834856</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.11915915915938</v>
+        <v>18.07135135135157</v>
       </c>
     </row>
     <row r="11">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[52.657334370039706, 74.86234523095274]</t>
+          <t>[52.93367273589621, 74.58600686509624]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.440892098500626e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="O11" t="n">
-        <v>4.440892098500626e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="P11" t="n">
         <v>1.754763464167272</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.483712238345184, 56.598935749520074]</t>
+          <t>[43.48777301167136, 56.5948749761939]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,21 +1459,21 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[53.105039360685, 74.41464024030745]</t>
+          <t>[52.77192837055199, 74.74775123044046]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="P12" t="n">
         <v>1.754763464167272</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.566079220708426, 1.9434477076261185]</t>
+          <t>[1.57865817027235, 1.9308687580621946]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.49377232370448, 56.588875664160774]</t>
+          <t>[43.49079839654503, 56.591849591320226]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1500,10 +1500,10 @@
         <v>17.21081081081102</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.4936936936939</v>
+        <v>16.54150150150171</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.92792792792815</v>
+        <v>17.88012012012033</v>
       </c>
     </row>
     <row r="13">
@@ -1545,14 +1545,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[52.39149328465446, 75.19432048627728]</t>
+          <t>[52.07891085716646, 75.50690291376527]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.088018564132653e-14</v>
+        <v>2.642330798607873e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>1.088018564132653e-14</v>
+        <v>2.642330798607873e-14</v>
       </c>
       <c r="P13" t="n">
         <v>1.880552959806503</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.550065412102406, 56.614459998294144]</t>
+          <t>[43.55572022348478, 56.60880518691177]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,21 +1631,21 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[52.329121705362965, 75.25669206556877]</t>
+          <t>[51.97075751521997, 75.61505625571176]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.310063169057685e-14</v>
+        <v>3.597122599785507e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>1.310063169057685e-14</v>
+        <v>3.597122599785507e-14</v>
       </c>
       <c r="P14" t="n">
         <v>1.880552959806503</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.691868716347658, 2.0692372032653488]</t>
+          <t>[1.679289766783735, 2.081816152829272]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[43.548786168646615, 56.615739241749935]</t>
+          <t>[43.54917092804926, 56.61535448234729]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1672,10 +1672,10 @@
         <v>16.73273273273294</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.01561561561581</v>
+        <v>15.96780780780801</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.44984984985006</v>
+        <v>17.49765765765787</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_6_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_6_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.90277715644439, 73.3084717447039]</t>
+          <t>[54.013301950820605, 73.19794695032768]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.50448898290632, 58.63787158398123]</t>
+          <t>[45.50409513463596, 58.638265432251586]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[53.47426889848056, 73.9393693325495]</t>
+          <t>[53.75766619612064, 73.65597203490942]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.4654476241970409, 1.7925003128590413]</t>
+          <t>[1.4528686746331179, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.44843140726394, 56.5515377893674]</t>
+          <t>[43.445558143457774, 56.55441105317357]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -726,10 +726,10 @@
         <v>17.72592592592615</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.10312312312334</v>
+        <v>17.05521521521543</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.34872872872896</v>
+        <v>18.39663663663687</v>
       </c>
     </row>
     <row r="4">
@@ -771,14 +771,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[53.4367281964297, 73.97691003460037]</t>
+          <t>[53.79827457531172, 73.61536365571834]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P4" t="n">
         <v>1.628973968528041</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.452848945511505, 56.547120251119836]</t>
+          <t>[43.44831350737353, 56.551655689257814]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[53.47482976993149, 73.93880846109857]</t>
+          <t>[53.556422085718, 73.85721614531207]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 1.7925003128590422]</t>
+          <t>[1.4528686746331179, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.44694248323287, 56.553026713398474]</t>
+          <t>[43.44545865696028, 56.554510539671064]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>17.72592592592615</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.10312312312334</v>
+        <v>17.05521521521543</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.34872872872896</v>
+        <v>18.39663663663687</v>
       </c>
     </row>
     <row r="6">
@@ -943,21 +943,21 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[53.020956836176794, 74.19025410133956]</t>
+          <t>[53.30198080688912, 73.90923013062724]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="P6" t="n">
         <v>1.691868716347656</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.503184472888809, 1.8805529598065034]</t>
+          <t>[1.515763422452733, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.3608363211718, 54.496864620810285]</t>
+          <t>[41.36015453932282, 54.49754640265927]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -984,10 +984,10 @@
         <v>17.48638638638661</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.76776776776797</v>
+        <v>16.81567567567589</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.20500500500524</v>
+        <v>18.15709709709732</v>
       </c>
     </row>
     <row r="7">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[52.69438976252404, 74.78310257923046]</t>
+          <t>[53.45735716187541, 74.02013517987909]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="O7" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="P7" t="n">
         <v>1.754763464167272</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.492933632621735, 56.55519910158505]</t>
+          <t>[43.488093921793734, 56.560038812413055]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[52.95447475186701, 74.52301758988749]</t>
+          <t>[52.907427209779044, 74.57006513197545]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="P8" t="n">
         <v>1.754763464167272</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.48673274675755, 56.561399987449235]</t>
+          <t>[43.48830395217837, 56.55982878202842]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[52.993828544227725, 74.48366379752677]</t>
+          <t>[52.93612034633095, 74.54137199542355]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="P9" t="n">
         <v>1.754763464167272</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.485353099167405, 56.562779635039384]</t>
+          <t>[43.485580049314294, 56.562552684892495]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[53.07467664752599, 74.18318358967745]</t>
+          <t>[53.06315414286834, 74.1947060943351]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.528342372016656, 1.8553950606786564]</t>
+          <t>[1.515763422452733, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.35096110356302, 54.523915081610795]</t>
+          <t>[41.354765691732084, 54.520110493441734]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1328,10 +1328,10 @@
         <v>17.44984984985006</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.82834834834856</v>
+        <v>16.78054054054075</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.07135135135157</v>
+        <v>18.11915915915938</v>
       </c>
     </row>
     <row r="11">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[52.93367273589621, 74.58600686509624]</t>
+          <t>[52.93871105395995, 74.5809685470325]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="P11" t="n">
         <v>1.754763464167272</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.48777301167136, 56.5948749761939]</t>
+          <t>[43.48291940571808, 56.59972858214718]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[52.77192837055199, 74.74775123044046]</t>
+          <t>[52.79560509151021, 74.72407450948224]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="O12" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="P12" t="n">
         <v>1.754763464167272</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.49079839654503, 56.591849591320226]</t>
+          <t>[43.487393098190026, 56.59525488967523]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,14 +1545,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[52.07891085716646, 75.50690291376527]</t>
+          <t>[52.150059455707535, 75.4357543152242]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.642330798607873e-14</v>
+        <v>2.176037128265307e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>2.642330798607873e-14</v>
+        <v>2.176037128265307e-14</v>
       </c>
       <c r="P13" t="n">
         <v>1.880552959806503</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.55572022348478, 56.60880518691177]</t>
+          <t>[43.54633153613023, 56.61819387426632]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,21 +1631,21 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[51.97075751521997, 75.61505625571176]</t>
+          <t>[52.25137323049658, 75.33444054043515]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.597122599785507e-14</v>
+        <v>1.620925615952729e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>3.597122599785507e-14</v>
+        <v>1.620925615952729e-14</v>
       </c>
       <c r="P14" t="n">
         <v>1.880552959806503</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.679289766783735, 2.081816152829272]</t>
+          <t>[1.691868716347658, 2.0692372032653488]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[43.54917092804926, 56.61535448234729]</t>
+          <t>[43.546760010716525, 56.617765399680025]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1672,10 +1672,10 @@
         <v>16.73273273273294</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.96780780780801</v>
+        <v>16.01561561561581</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.49765765765787</v>
+        <v>17.44984984985006</v>
       </c>
     </row>
   </sheetData>
